--- a/biology/Écologie/Sélection_de_groupe/Sélection_de_groupe.xlsx
+++ b/biology/Écologie/Sélection_de_groupe/Sélection_de_groupe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9lection_de_groupe</t>
+          <t>Sélection_de_groupe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sélection de groupe est une généralisation de la théorie de l'évolution par voie de sélection naturelle de Darwin, selon laquelle un groupe d'organismes qui coopèrent fonctionne mieux, à terme, qu'un groupe dont les membres sont en compétition. La théorie de Darwin constitue un cas particulier de la sélection de groupe où la pression de sélection ne s'applique qu'aux individus. Dans la sélection de groupe, certains traits phénotypiques diminuant la survie et la reproduction des individus peuvent cependant être sélectionnés s'ils augmentent par ailleurs la stabilité et la survie à long terme du groupe ou de l'espèce.
 Proposée par Darwin, cette théorie, dans sa version actuelle, est popularisée en 1962 par l'écologue écossais Vero Copner Wynne-Edwards et développée en 1970 par le biologiste américain George Price.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9lection_de_groupe</t>
+          <t>Sélection_de_groupe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le darwinisme
-Dans La Filiation de l'homme et la sélection liée au sexe[2] au chap.5 portant sur le développement des facultés intellectuelles et morales, Darwin remarque qu'à l'intérieur de leur propre tribu, les personnes moralement honnêtes n'ont pas nécessairement d'avantage sélectif face aux personnes moins honnêtes, mais que les tribus constituées de membres moralement honnêtes possèdent un avantage évident sur les autres tribus. Il conclut par : «… et ceci serait une sélection naturelle.»
+          <t>Le darwinisme</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans La Filiation de l'homme et la sélection liée au sexe au chap.5 portant sur le développement des facultés intellectuelles et morales, Darwin remarque qu'à l'intérieur de leur propre tribu, les personnes moralement honnêtes n'ont pas nécessairement d'avantage sélectif face aux personnes moins honnêtes, mais que les tribus constituées de membres moralement honnêtes possèdent un avantage évident sur les autres tribus. Il conclut par : «… et ceci serait une sélection naturelle.»
 Il faut près d'un siècle pour obtenir une version mathématique formalisée de ce théorème.
-Le néodarwinisme
-La sélection de groupe est utilisée comme explication de l’adaptation en particulier par V.C. Wynne-Edwards[3],[4]. Elle est cependant vivement critiquée, pendant plusieurs décennies, en particulier par George C. Williams[5],[6], John Maynard Smith[7] et C.M. Perrins. La communauté scientifique adopte massivement la position de Williams : des caractéristiques pour le bien du groupe peuvent être sélectionnées si la pression de sélection envers le groupe domine la pression de sélection individuelle, mais en pratique, « les adaptations liées au groupe n'existent pas »
-.
-Le postdarwinisme
-La redécouverte de cette théorie accompagne les nombreuses études portant sur les relations entre symbiotes et leurs hôtes. Ainsi, selon Marc-André Selosse, si l'explication de la sélection de groupe n'a pas convaincu sur le plan théorique, plusieurs mécanismes semblent pouvoir sélectionner l'entraide entre espèces (association à coût nul, sanction des tricheurs, transmission verticale (en) alors que la transmission horizontale ouvre la voie à de possibles conﬂits entre partenaires et à la sélection de tricheurs)[8].
 </t>
         </is>
       </c>
@@ -532,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9lection_de_groupe</t>
+          <t>Sélection_de_groupe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +559,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire de la sélection de groupe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le néodarwinisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sélection de groupe est utilisée comme explication de l’adaptation en particulier par V.C. Wynne-Edwards,. Elle est cependant vivement critiquée, pendant plusieurs décennies, en particulier par George C. Williams John Maynard Smith et C.M. Perrins. La communauté scientifique adopte massivement la position de Williams : des caractéristiques pour le bien du groupe peuvent être sélectionnées si la pression de sélection envers le groupe domine la pression de sélection individuelle, mais en pratique, « les adaptations liées au groupe n'existent pas »
+.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sélection_de_groupe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9lection_de_groupe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire de la sélection de groupe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le postdarwinisme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La redécouverte de cette théorie accompagne les nombreuses études portant sur les relations entre symbiotes et leurs hôtes. Ainsi, selon Marc-André Selosse, si l'explication de la sélection de groupe n'a pas convaincu sur le plan théorique, plusieurs mécanismes semblent pouvoir sélectionner l'entraide entre espèces (association à coût nul, sanction des tricheurs, transmission verticale (en) alors que la transmission horizontale ouvre la voie à de possibles conﬂits entre partenaires et à la sélection de tricheurs).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sélection_de_groupe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9lection_de_groupe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>L'équation de Price</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Soit une population de 
         n
@@ -729,34 +818,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>S%C3%A9lection_de_groupe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sélection_de_groupe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/S%C3%A9lection_de_groupe</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>L'équation de Price appliquée à l'évolution de l'altruisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le modèle de Price
-Si la sélection de parentèle permet d'expliquer comment les groupes familiaux apparaissent, elle permet difficilement d'expliquer la formation des groupes multifamiliaux et encore moins les groupes de membres anonymes. Le problème réside dans le fait que dans l'équation d'Hamilton, l'altruisme est directement relié à la distance génétique ; sans apparentement, point d'altruisme. George Price a eu l'idée de réutiliser la notion d'altruisme de l'équation d'Hamilton et de l'appliquer à sa généralisation du théorème fondamental de la sélection naturelle de Fisher. Son modèle est le suivant :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le modèle de Price</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si la sélection de parentèle permet d'expliquer comment les groupes familiaux apparaissent, elle permet difficilement d'expliquer la formation des groupes multifamiliaux et encore moins les groupes de membres anonymes. Le problème réside dans le fait que dans l'équation d'Hamilton, l'altruisme est directement relié à la distance génétique ; sans apparentement, point d'altruisme. George Price a eu l'idée de réutiliser la notion d'altruisme de l'équation d'Hamilton et de l'appliquer à sa généralisation du théorème fondamental de la sélection naturelle de Fisher. Son modèle est le suivant :
           w
             i
         =
@@ -828,8 +922,43 @@
  : la variance de l'altruisme de la population de la génération précédente.
 Ce résultat signifie que pour que l'altruisme persiste dans une population, il faut absolument que celle-ci soit uniforme (variance de zéro). Dans le cas contraire, l'évolution va converger vers le plus bas niveau d'altruisme.
 Par conséquent, si nous arrêtions ici le raisonnement, nous pourrions conclure que l'altruisme ne peut exister dans la nature et ceci même dans une population hautement apparentée, même pour des clones. Jamais aucun comportement altruiste ne pourrait émerger, ne serait-ce que l'instinct de troupeau.
-L'équation de Price complète
-Maintenant supposons que la population est divisée en un ensemble de groupes indexés par i et que chaque groupe est composé d'individus indexés par j. Chaque individu est donc identifié par deux indices, i et j. En reprenant le modèle de Price nous obtenons :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sélection_de_groupe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9lection_de_groupe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L'équation de Price appliquée à l'évolution de l'altruisme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'équation de Price complète</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maintenant supposons que la population est divisée en un ensemble de groupes indexés par i et que chaque groupe est composé d'individus indexés par j. Chaque individu est donc identifié par deux indices, i et j. En reprenant le modèle de Price nous obtenons :
           w
             i
             j
@@ -987,8 +1116,43 @@
         0
     {\displaystyle \left(a-b\right)\operatorname {var} (z_{i})=0}
 Par conséquent, le mécanisme d'évolution se stabilise si tous les membres du groupe possèdent le même niveau d'altruisme (variance nulle) ou que le gain en altruisme envers le groupe compense parfaitement les pertes individuelles (a = b). Si au lieu de l'altruisme nous avions étudié la malveillance entre les membres des différents groupes, nous serions arrivé à une conclusion semblable : le mécanisme d'évolution se stabilise si tous les membres du groupe possèdent le même niveau de malveillance envers les membres des autres groupes ou que le gain en malveillance envers les autres groupes compense parfaitement les pertes individuelles.
-Implications de l’équation de Price
-L’équation de Price ébranla profondément la foi d’Hamilton en son propre modèle de la sélection de parentèle, celui-ci n’étant plus nécessaire pour expliquer l’apparition de la socialisation. De nos jours, on considère généralement que les deux mécanismes sont impliqués à des niveaux distincts de l’apparition des comportements sociaux. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sélection_de_groupe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9lection_de_groupe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>L'équation de Price appliquée à l'évolution de l'altruisme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Implications de l’équation de Price</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’équation de Price ébranla profondément la foi d’Hamilton en son propre modèle de la sélection de parentèle, celui-ci n’étant plus nécessaire pour expliquer l’apparition de la socialisation. De nos jours, on considère généralement que les deux mécanismes sont impliqués à des niveaux distincts de l’apparition des comportements sociaux. 
 L’équation de Price permet de prédire l’existence de beaucoup de phénomènes naturels dont l’origine était jusqu’alors mal comprise. Il s’agit de la première théorie de la sélection de groupe permettant de tirer des conclusions scientifiquement intéressantes :
 De la même façon que la théorie d’Hamilton permet de prédire la sélection de mécanismes de reconnaissance des apparentés, l’équation de Price permet de prédire la sélection de mécanismes de reconnaissance des membres du groupe.
 La sélection naturelle devrait sélectionner des comportements altruistes modulés par le risque que court le groupe pour sa survie ou pour réaliser un gain en ressources (plus b est grand plus a l’est). Les comportements altruistes devraient donc êtres plus intenses lors de crises écologiques ou lors de compétitions intergroupes.
@@ -1000,33 +1164,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>S%C3%A9lection_de_groupe</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sélection_de_groupe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/S%C3%A9lection_de_groupe</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Stratégies coopératives liées aux bénéfices de la vie en groupe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe de nombreuses stratégies coopératives liées aux bénéfices de la vie en groupe[9] : réduction des risques liés à la prédation, exploitation collective des ressources du milieu (habitat, nourriture), déplacements collectifs synchronisés qui permettent de réduire les dépenses énergétiques individuelles (bancs de poissons et vol en formation des oiseaux qui réduit les forces de frottement avec le milieu extérieur et diminue le coût énergétique associé à la nage[10] ou au vol[11]).
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe de nombreuses stratégies coopératives liées aux bénéfices de la vie en groupe : réduction des risques liés à la prédation, exploitation collective des ressources du milieu (habitat, nourriture), déplacements collectifs synchronisés qui permettent de réduire les dépenses énergétiques individuelles (bancs de poissons et vol en formation des oiseaux qui réduit les forces de frottement avec le milieu extérieur et diminue le coût énergétique associé à la nage ou au vol).
 </t>
         </is>
       </c>
